--- a/project.xlsx
+++ b/project.xlsx
@@ -21,6 +21,46 @@
     <author>Yudong Shen</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 宝宝社保卡
+2. 威尔士健身卡续签</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 新砌墙空调套管 -- 完成
+2. 水管三角阀 -- 完成
+3. 铲墙，空调不需要铲 -- 等水电完成
+4. 刷墙崮 -- 完成</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0">
       <text>
         <r>
@@ -44,7 +84,7 @@
             <family val="2"/>
           </rPr>
           <t>1. 铲墙，将设备上方的腻子铲干净，为了刷墙崮
-2. 确认空调位置和尺寸，以及管道走位</t>
+2. 刷墙崮</t>
         </r>
       </text>
     </comment>
@@ -57,7 +97,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>在设备上面刷墙崮</t>
+          <t>确认空调位置和尺寸，以及管道走位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 约新风的人员，讨论空调安装的问题
+2. 主卧新风安装</t>
         </r>
         <r>
           <rPr>
@@ -82,7 +136,7 @@
             <family val="2"/>
           </rPr>
           <t>1. 铲墙，将设备上方的腻子铲干净，为了刷墙崮
-2. 确认空调位置和尺寸，以及管道走位</t>
+2. 刷墙崮</t>
         </r>
       </text>
     </comment>
@@ -95,7 +149,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>在设备上面刷墙崮</t>
+          <t>确认空调位置和尺寸，以及管道走位</t>
         </r>
         <r>
           <rPr>
@@ -110,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,13 +198,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1. 新砌墙中央空调需要套管
+          <t>1. 新砌墙中央空调需要套管
 2. 厕所边什么时候砌
-</t>
+3. 卫生间和主卧堵孔</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="R5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="S5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +255,7 @@
           </rPr>
           <t>1. 进户左边吊顶走边3～4cm
 2. 梁下下邳铲掉，吊顶30cm
-3. （吊顶下檐，内收6cm收2cm）</t>
+3. 吊顶下檐，内收6cm收2cm</t>
         </r>
       </text>
     </comment>
@@ -214,7 +268,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1. 踢脚线的问题</t>
+          <t>1. 踢脚线的问题
+2. 边门宽600，进深700的问题</t>
         </r>
       </text>
     </comment>
@@ -227,11 +282,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1. 看柏木森衣柜</t>
+          <t>1. 汶水红星看衣柜</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +295,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1. 确认门问题</t>
+          <t>1. 看柏木森衣柜</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 确认门和价格</t>
         </r>
       </text>
     </comment>
@@ -270,12 +338,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 800 * 800 上墙
+2. 需要厂家切的是卫生间400 * 400， 仰角，阳台350 * 450
+3. 美缝的卡子是瓷砖送的，需要和美缝的确认留缝大小</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>来现场</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 抽油烟机止逆阀是180
+2. 京东延迟收获</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 看水槽和电器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>看花洒和台盆</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. 每个房间2根网线
+2. POE + AC
+3. IPTV
+4. 客厅有有线电视线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>加走廊一个插座</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>晚上在确认一下等</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>编号</t>
   </si>
@@ -309,12 +497,39 @@
   <si>
     <t>地暖</t>
   </si>
+  <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>橱柜</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>四月份</t>
+  </si>
+  <si>
+    <t>五月份</t>
+  </si>
+  <si>
+    <t>六月份</t>
+  </si>
+  <si>
+    <t>开关插座</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>开槽和线</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +580,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +673,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -452,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,18 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,12 +745,79 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,112 +1116,102 @@
   <dimension ref="A1:BZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="48" width="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="78" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11">
-        <v>4</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12">
-        <v>5</v>
-      </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="11">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1150,12 +1453,12 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1234,12 +1537,12 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1316,11 +1619,9 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1400,10 +1701,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1484,10 +1785,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1568,13 +1869,13 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1652,13 +1953,12 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1736,12 +2036,12 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1817,8 +2117,12 @@
       <c r="BZ10" s="3"/>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1826,7 +2130,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1897,12 +2201,16 @@
       <c r="BZ11" s="3"/>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1977,12 +2285,16 @@
       <c r="BZ12" s="3"/>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2057,10 +2369,14 @@
       <c r="BZ13" s="3"/>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2137,10 +2453,14 @@
       <c r="BZ14" s="3"/>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2217,8 +2537,12 @@
       <c r="BZ15" s="3"/>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3994,7 +4318,7 @@
   <dimension ref="A1:BZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,92 +4332,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31">
         <v>5</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="11">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="30">
         <v>6</v>
       </c>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
